--- a/definitieboek/definitieboek.xlsx
+++ b/definitieboek/definitieboek.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geriw\Documents\GitHub\waterkwaliteitapi\definitieboek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D752D0E-3304-4BFF-9DB3-F3A4BED2C59B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ADB3389-9F45-4B32-8CC2-0937F474C115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5595" yWindow="2205" windowWidth="52110" windowHeight="11220" activeTab="4" xr2:uid="{E45D2238-3B48-4231-829B-22AB2196956B}"/>
+    <workbookView xWindow="34560" yWindow="2595" windowWidth="45405" windowHeight="11220" activeTab="3" xr2:uid="{E45D2238-3B48-4231-829B-22AB2196956B}"/>
   </bookViews>
   <sheets>
     <sheet name="Observation" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="147">
   <si>
     <t>Name</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Behaviour</t>
   </si>
   <si>
-    <t>Aquo type</t>
-  </si>
-  <si>
     <t>Category</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>Grootheid - AQUO</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>Measure</t>
   </si>
   <si>
@@ -327,9 +321,6 @@
     <t>SampledFeature/Uri</t>
   </si>
   <si>
-    <t>Reference</t>
-  </si>
-  <si>
     <t>String</t>
   </si>
   <si>
@@ -481,6 +472,15 @@
   </si>
   <si>
     <t>NowGeo</t>
+  </si>
+  <si>
+    <t>AquoType</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>WKT</t>
   </si>
 </sst>
 </file>
@@ -855,14 +855,14 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.28515625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -871,369 +871,366 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
         <v>96</v>
-      </c>
-      <c r="D29" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1260,29 +1257,29 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1290,15 +1287,15 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1311,8 +1308,8 @@
   <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,369 +1324,366 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C7" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B19" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B21" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B22" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B26" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D28" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B29" t="s">
+        <v>93</v>
+      </c>
+      <c r="D29" t="s">
         <v>96</v>
-      </c>
-      <c r="D29" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1702,9 +1696,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097CEC25-7266-4DA4-B581-69D3814A0708}">
   <dimension ref="A1:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1720,592 +1714,589 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="D8" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D9" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>95</v>
+        <v>146</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
+        <v>146</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D33" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D34" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C35" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D35" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C40" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B41" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B44" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D45" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" t="s">
         <v>96</v>
-      </c>
-      <c r="D46" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2317,9 +2308,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F149D8AB-303E-4786-ACF9-BD68A02FBA2F}">
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2332,10 +2323,13 @@
   <sheetData>
     <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>144</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -2343,317 +2337,305 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
